--- a/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab-2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahrettin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\10. Game-Lab-2.1\Game-Lab-2.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -483,7 +483,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -749,6 +749,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1044,7 @@
   <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,11 +1108,11 @@
       <c r="I2" s="1"/>
       <c r="J2" s="104">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176+B184</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K2" s="95">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L2" s="101">
         <f>K2/J2</f>
@@ -1143,7 +1149,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="66">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176+D184</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L3" s="96">
         <f>K3/J2</f>
@@ -1158,11 +1164,21 @@
         <v>4</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="107">
+        <v>2</v>
+      </c>
+      <c r="D4" s="108">
+        <v>2</v>
+      </c>
+      <c r="E4" s="108">
+        <v>2</v>
+      </c>
+      <c r="F4" s="108">
+        <v>2</v>
+      </c>
+      <c r="G4" s="108">
+        <v>2</v>
+      </c>
       <c r="H4" s="26" t="s">
         <v>2</v>
       </c>
@@ -1170,7 +1186,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="89">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L4" s="97">
         <f>K4/J2</f>
@@ -1195,7 +1211,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="98">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176+F184</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5" s="99">
         <f>K5/J2</f>
@@ -1220,7 +1236,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="90">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L6" s="103">
         <f>K6/J2</f>
@@ -1250,27 +1266,27 @@
         <v>10</v>
       </c>
       <c r="B8" s="104">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="79">
         <f t="shared" ref="C8:G8" si="0">SUM(C3:C7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="80">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="80">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="80">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="81">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="83"/>
